--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Il4-Cd53.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Il4-Cd53.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,16 +543,16 @@
         <v>0.5</v>
       </c>
       <c r="G2">
-        <v>0.0860255</v>
+        <v>0.6994255</v>
       </c>
       <c r="H2">
-        <v>0.172051</v>
+        <v>1.398851</v>
       </c>
       <c r="I2">
-        <v>0.01866214241451323</v>
+        <v>0.182573212173366</v>
       </c>
       <c r="J2">
-        <v>0.01457003365018844</v>
+        <v>0.1466317745802101</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.16617</v>
+        <v>1.3066445</v>
       </c>
       <c r="N2">
-        <v>2.33234</v>
+        <v>2.613289</v>
       </c>
       <c r="O2">
-        <v>0.002159413778923105</v>
+        <v>0.001112160163263433</v>
       </c>
       <c r="P2">
-        <v>0.001440646169678522</v>
+        <v>0.000741908464961699</v>
       </c>
       <c r="Q2">
-        <v>0.100320357335</v>
+        <v>0.91390048273475</v>
       </c>
       <c r="R2">
-        <v>0.4012814293400001</v>
+        <v>3.655601930939</v>
       </c>
       <c r="S2">
-        <v>4.029928747412516E-05</v>
+        <v>0.0002030506534582602</v>
       </c>
       <c r="T2">
-        <v>2.099026317023115E-05</v>
+        <v>0.0001087873547934135</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>0.5</v>
       </c>
       <c r="G3">
-        <v>0.0860255</v>
+        <v>0.6994255</v>
       </c>
       <c r="H3">
-        <v>0.172051</v>
+        <v>1.398851</v>
       </c>
       <c r="I3">
-        <v>0.01866214241451323</v>
+        <v>0.182573212173366</v>
       </c>
       <c r="J3">
-        <v>0.01457003365018844</v>
+        <v>0.1466317745802101</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,28 +623,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>259.9639433333334</v>
+        <v>365.6839396666667</v>
       </c>
       <c r="N3">
-        <v>779.89183</v>
+        <v>1097.051819</v>
       </c>
       <c r="O3">
-        <v>0.4813789766990964</v>
+        <v>0.3112545991220224</v>
       </c>
       <c r="P3">
-        <v>0.481725725088569</v>
+        <v>0.3114512137837528</v>
       </c>
       <c r="Q3">
-        <v>22.36352820722167</v>
+        <v>255.7686723433282</v>
       </c>
       <c r="R3">
-        <v>134.18116924333</v>
+        <v>1534.612034059969</v>
       </c>
       <c r="S3">
-        <v>0.00898356301851118</v>
+        <v>0.05682675196544099</v>
       </c>
       <c r="T3">
-        <v>0.007018760024701875</v>
+        <v>0.04566864417227206</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,7 +658,7 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -667,46 +667,46 @@
         <v>0.5</v>
       </c>
       <c r="G4">
-        <v>0.0860255</v>
+        <v>0.6994255</v>
       </c>
       <c r="H4">
-        <v>0.172051</v>
+        <v>1.398851</v>
       </c>
       <c r="I4">
-        <v>0.01866214241451323</v>
+        <v>0.182573212173366</v>
       </c>
       <c r="J4">
-        <v>0.01457003365018844</v>
+        <v>0.1466317745802101</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M4">
-        <v>1.612669333333334</v>
+        <v>0.9183924999999999</v>
       </c>
       <c r="N4">
-        <v>4.838008</v>
+        <v>1.836785</v>
       </c>
       <c r="O4">
-        <v>0.002986203022926964</v>
+        <v>0.0007816965921028347</v>
       </c>
       <c r="P4">
-        <v>0.002988354053900395</v>
+        <v>0.0005214602517420287</v>
       </c>
       <c r="Q4">
-        <v>0.1387306857346667</v>
+        <v>0.6423471335087499</v>
       </c>
       <c r="R4">
-        <v>0.8323841144080001</v>
+        <v>2.569388534035</v>
       </c>
       <c r="S4">
-        <v>5.57289460925129E-05</v>
+        <v>0.000142716857765188</v>
       </c>
       <c r="T4">
-        <v>4.354041912400579E-05</v>
+        <v>7.646264208597674E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,7 +720,7 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -729,16 +729,16 @@
         <v>0.5</v>
       </c>
       <c r="G5">
-        <v>0.0860255</v>
+        <v>0.6994255</v>
       </c>
       <c r="H5">
-        <v>0.172051</v>
+        <v>1.398851</v>
       </c>
       <c r="I5">
-        <v>0.01866214241451323</v>
+        <v>0.182573212173366</v>
       </c>
       <c r="J5">
-        <v>0.01457003365018844</v>
+        <v>0.1466317745802101</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,33 +747,33 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>277.297302</v>
+        <v>580.2741193333334</v>
       </c>
       <c r="N5">
-        <v>831.8919060000001</v>
+        <v>1740.822358</v>
       </c>
       <c r="O5">
-        <v>0.5134754064990537</v>
+        <v>0.4939046230977935</v>
       </c>
       <c r="P5">
-        <v>0.5138452746878521</v>
+        <v>0.4942166149227221</v>
       </c>
       <c r="Q5">
-        <v>23.854639053201</v>
+        <v>405.8585160517764</v>
       </c>
       <c r="R5">
-        <v>143.127834319206</v>
+        <v>2435.151096310658</v>
       </c>
       <c r="S5">
-        <v>0.009582551162435409</v>
+        <v>0.09017375354623984</v>
       </c>
       <c r="T5">
-        <v>0.007486742943192327</v>
+        <v>0.07246785927314306</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,55 +782,55 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G6">
-        <v>0.377627</v>
+        <v>0.6994255</v>
       </c>
       <c r="H6">
-        <v>1.132881</v>
+        <v>1.398851</v>
       </c>
       <c r="I6">
-        <v>0.08192139369797775</v>
+        <v>0.182573212173366</v>
       </c>
       <c r="J6">
-        <v>0.09593733423031037</v>
+        <v>0.1466317745802101</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.16617</v>
+        <v>226.6877033333333</v>
       </c>
       <c r="N6">
-        <v>2.33234</v>
+        <v>680.0631099999999</v>
       </c>
       <c r="O6">
-        <v>0.002159413778923105</v>
+        <v>0.1929469210248179</v>
       </c>
       <c r="P6">
-        <v>0.001440646169678522</v>
+        <v>0.1930688025768214</v>
       </c>
       <c r="Q6">
-        <v>0.44037727859</v>
+        <v>158.5511602477683</v>
       </c>
       <c r="R6">
-        <v>2.64226367154</v>
+        <v>951.3069614866099</v>
       </c>
       <c r="S6">
-        <v>0.0001769021863399976</v>
+        <v>0.03522693915046177</v>
       </c>
       <c r="T6">
-        <v>0.0001382117530880648</v>
+        <v>0.02831002113791556</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,7 +844,7 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -859,40 +859,40 @@
         <v>1.132881</v>
       </c>
       <c r="I7">
-        <v>0.08192139369797775</v>
+        <v>0.09857314952542007</v>
       </c>
       <c r="J7">
-        <v>0.09593733423031037</v>
+        <v>0.1187519981886584</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>259.9639433333334</v>
+        <v>1.3066445</v>
       </c>
       <c r="N7">
-        <v>779.89183</v>
+        <v>2.613289</v>
       </c>
       <c r="O7">
-        <v>0.4813789766990964</v>
+        <v>0.001112160163263433</v>
       </c>
       <c r="P7">
-        <v>0.481725725088569</v>
+        <v>0.000741908464961699</v>
       </c>
       <c r="Q7">
-        <v>98.16940402913667</v>
+        <v>0.4934242426015</v>
       </c>
       <c r="R7">
-        <v>883.52463626223</v>
+        <v>2.960545455609</v>
       </c>
       <c r="S7">
-        <v>0.03943523666809633</v>
+        <v>0.000109629130069582</v>
       </c>
       <c r="T7">
-        <v>0.04621548189516065</v>
+        <v>8.810311268728198E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,7 +906,7 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -921,10 +921,10 @@
         <v>1.132881</v>
       </c>
       <c r="I8">
-        <v>0.08192139369797775</v>
+        <v>0.09857314952542007</v>
       </c>
       <c r="J8">
-        <v>0.09593733423031037</v>
+        <v>0.1187519981886584</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.612669333333334</v>
+        <v>365.6839396666667</v>
       </c>
       <c r="N8">
-        <v>4.838008</v>
+        <v>1097.051819</v>
       </c>
       <c r="O8">
-        <v>0.002986203022926964</v>
+        <v>0.3112545991220224</v>
       </c>
       <c r="P8">
-        <v>0.002988354053900395</v>
+        <v>0.3114512137837528</v>
       </c>
       <c r="Q8">
-        <v>0.6089874823386667</v>
+        <v>138.0921290845043</v>
       </c>
       <c r="R8">
-        <v>5.480887341048001</v>
+        <v>1242.829161760539</v>
       </c>
       <c r="S8">
-        <v>0.0002446339135032911</v>
+        <v>0.0306813461397298</v>
       </c>
       <c r="T8">
-        <v>0.0002866947216675451</v>
+        <v>0.03698545397510367</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,7 +968,7 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -983,45 +983,45 @@
         <v>1.132881</v>
       </c>
       <c r="I9">
-        <v>0.08192139369797775</v>
+        <v>0.09857314952542007</v>
       </c>
       <c r="J9">
-        <v>0.09593733423031037</v>
+        <v>0.1187519981886584</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M9">
-        <v>277.297302</v>
+        <v>0.9183924999999999</v>
       </c>
       <c r="N9">
-        <v>831.8919060000001</v>
+        <v>1.836785</v>
       </c>
       <c r="O9">
-        <v>0.5134754064990537</v>
+        <v>0.0007816965921028347</v>
       </c>
       <c r="P9">
-        <v>0.5138452746878521</v>
+        <v>0.0005214602517420287</v>
       </c>
       <c r="Q9">
-        <v>104.714948262354</v>
+        <v>0.3468098045975</v>
       </c>
       <c r="R9">
-        <v>942.4345343611861</v>
+        <v>2.080858827585</v>
       </c>
       <c r="S9">
-        <v>0.04206462093003814</v>
+        <v>7.705429505686402E-05</v>
       </c>
       <c r="T9">
-        <v>0.04929694586039411</v>
+        <v>6.192444687032672E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -1030,7 +1030,7 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1039,51 +1039,51 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.258563666666667</v>
+        <v>0.377627</v>
       </c>
       <c r="H10">
-        <v>3.775691</v>
+        <v>1.132881</v>
       </c>
       <c r="I10">
-        <v>0.273029443421605</v>
+        <v>0.09857314952542007</v>
       </c>
       <c r="J10">
-        <v>0.3197420818403476</v>
+        <v>0.1187519981886584</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.16617</v>
+        <v>580.2741193333334</v>
       </c>
       <c r="N10">
-        <v>2.33234</v>
+        <v>1740.822358</v>
       </c>
       <c r="O10">
-        <v>0.002159413778923105</v>
+        <v>0.4939046230977935</v>
       </c>
       <c r="P10">
-        <v>0.001440646169678522</v>
+        <v>0.4942166149227221</v>
       </c>
       <c r="Q10">
-        <v>1.467699191156667</v>
+        <v>219.1271748614887</v>
       </c>
       <c r="R10">
-        <v>8.806195146940002</v>
+        <v>1972.144573753398</v>
       </c>
       <c r="S10">
-        <v>0.0005895835421763202</v>
+        <v>0.04868573426391504</v>
       </c>
       <c r="T10">
-        <v>0.0004606352054883333</v>
+        <v>0.05868921056010796</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,7 +1092,7 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.258563666666667</v>
+        <v>0.377627</v>
       </c>
       <c r="H11">
-        <v>3.775691</v>
+        <v>1.132881</v>
       </c>
       <c r="I11">
-        <v>0.273029443421605</v>
+        <v>0.09857314952542007</v>
       </c>
       <c r="J11">
-        <v>0.3197420818403476</v>
+        <v>0.1187519981886584</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>259.9639433333334</v>
+        <v>226.6877033333333</v>
       </c>
       <c r="N11">
-        <v>779.89183</v>
+        <v>680.0631099999999</v>
       </c>
       <c r="O11">
-        <v>0.4813789766990964</v>
+        <v>0.1929469210248179</v>
       </c>
       <c r="P11">
-        <v>0.481725725088569</v>
+        <v>0.1930688025768214</v>
       </c>
       <c r="Q11">
-        <v>327.1811737227256</v>
+        <v>85.60339734665665</v>
       </c>
       <c r="R11">
-        <v>2944.63056350453</v>
+        <v>770.4305761199099</v>
       </c>
       <c r="S11">
-        <v>0.1314306340830161</v>
+        <v>0.01901938569664879</v>
       </c>
       <c r="T11">
-        <v>0.15402798621587</v>
+        <v>0.02292730609388913</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,55 +1154,55 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>1.258563666666667</v>
+        <v>0.2206816666666667</v>
       </c>
       <c r="H12">
-        <v>3.775691</v>
+        <v>0.662045</v>
       </c>
       <c r="I12">
-        <v>0.273029443421605</v>
+        <v>0.05760522135825098</v>
       </c>
       <c r="J12">
-        <v>0.3197420818403476</v>
+        <v>0.06939755070551128</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.612669333333334</v>
+        <v>1.3066445</v>
       </c>
       <c r="N12">
-        <v>4.838008</v>
+        <v>2.613289</v>
       </c>
       <c r="O12">
-        <v>0.002986203022926964</v>
+        <v>0.001112160163263433</v>
       </c>
       <c r="P12">
-        <v>0.002988354053900395</v>
+        <v>0.000741908464961699</v>
       </c>
       <c r="Q12">
-        <v>2.029647029280889</v>
+        <v>0.2883524860008334</v>
       </c>
       <c r="R12">
-        <v>18.266823263528</v>
+        <v>1.730114916005</v>
       </c>
       <c r="S12">
-        <v>0.0008153213492936634</v>
+        <v>6.406623239061861E-05</v>
       </c>
       <c r="T12">
-        <v>0.0009555025464701545</v>
+        <v>5.148663031602754E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,25 +1216,25 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>1.258563666666667</v>
+        <v>0.2206816666666667</v>
       </c>
       <c r="H13">
-        <v>3.775691</v>
+        <v>0.662045</v>
       </c>
       <c r="I13">
-        <v>0.273029443421605</v>
+        <v>0.05760522135825098</v>
       </c>
       <c r="J13">
-        <v>0.3197420818403476</v>
+        <v>0.06939755070551128</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,95 +1243,95 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>277.297302</v>
+        <v>365.6839396666667</v>
       </c>
       <c r="N13">
-        <v>831.8919060000001</v>
+        <v>1097.051819</v>
       </c>
       <c r="O13">
-        <v>0.5134754064990537</v>
+        <v>0.3112545991220224</v>
       </c>
       <c r="P13">
-        <v>0.5138452746878521</v>
+        <v>0.3114512137837528</v>
       </c>
       <c r="Q13">
-        <v>348.996309161894</v>
+        <v>80.69974127887278</v>
       </c>
       <c r="R13">
-        <v>3140.966782457047</v>
+        <v>726.297671509855</v>
       </c>
       <c r="S13">
-        <v>0.140193904447119</v>
+        <v>0.01792989008119777</v>
       </c>
       <c r="T13">
-        <v>0.1642979578725191</v>
+        <v>0.02161395140085102</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
         <v>23</v>
       </c>
-      <c r="B14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>1.934301</v>
+        <v>0.2206816666666667</v>
       </c>
       <c r="H14">
-        <v>3.868602</v>
+        <v>0.662045</v>
       </c>
       <c r="I14">
-        <v>0.4196220973378282</v>
+        <v>0.05760522135825098</v>
       </c>
       <c r="J14">
-        <v>0.327610193019432</v>
+        <v>0.06939755070551128</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M14">
-        <v>1.16617</v>
+        <v>0.9183924999999999</v>
       </c>
       <c r="N14">
-        <v>2.33234</v>
+        <v>1.836785</v>
       </c>
       <c r="O14">
-        <v>0.002159413778923105</v>
+        <v>0.0007816965921028347</v>
       </c>
       <c r="P14">
-        <v>0.001440646169678522</v>
+        <v>0.0005214602517420287</v>
       </c>
       <c r="Q14">
-        <v>2.25572379717</v>
+        <v>0.2026723875541667</v>
       </c>
       <c r="R14">
-        <v>9.022895188680002</v>
+        <v>1.216034325325</v>
       </c>
       <c r="S14">
-        <v>0.0009061377389319187</v>
+        <v>4.502980522307421E-05</v>
       </c>
       <c r="T14">
-        <v>0.000471970369721086</v>
+        <v>3.618806426117611E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1340,25 +1340,25 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>1.934301</v>
+        <v>0.2206816666666667</v>
       </c>
       <c r="H15">
-        <v>3.868602</v>
+        <v>0.662045</v>
       </c>
       <c r="I15">
-        <v>0.4196220973378282</v>
+        <v>0.05760522135825098</v>
       </c>
       <c r="J15">
-        <v>0.327610193019432</v>
+        <v>0.06939755070551128</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,33 +1367,33 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>259.9639433333334</v>
+        <v>580.2741193333334</v>
       </c>
       <c r="N15">
-        <v>779.89183</v>
+        <v>1740.822358</v>
       </c>
       <c r="O15">
-        <v>0.4813789766990964</v>
+        <v>0.4939046230977935</v>
       </c>
       <c r="P15">
-        <v>0.481725725088569</v>
+        <v>0.4942166149227221</v>
       </c>
       <c r="Q15">
-        <v>502.8485155536101</v>
+        <v>128.0558597780122</v>
       </c>
       <c r="R15">
-        <v>3017.09109332166</v>
+        <v>1152.50273800211</v>
       </c>
       <c r="S15">
-        <v>0.2019972558168124</v>
+        <v>0.02845148514341191</v>
       </c>
       <c r="T15">
-        <v>0.1578182577786919</v>
+        <v>0.03429742259360575</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1402,25 +1402,25 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>1.934301</v>
+        <v>0.2206816666666667</v>
       </c>
       <c r="H16">
-        <v>3.868602</v>
+        <v>0.662045</v>
       </c>
       <c r="I16">
-        <v>0.4196220973378282</v>
+        <v>0.05760522135825098</v>
       </c>
       <c r="J16">
-        <v>0.327610193019432</v>
+        <v>0.06939755070551128</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.612669333333334</v>
+        <v>226.6877033333333</v>
       </c>
       <c r="N16">
-        <v>4.838008</v>
+        <v>680.0631099999999</v>
       </c>
       <c r="O16">
-        <v>0.002986203022926964</v>
+        <v>0.1929469210248179</v>
       </c>
       <c r="P16">
-        <v>0.002988354053900395</v>
+        <v>0.1930688025768214</v>
       </c>
       <c r="Q16">
-        <v>3.119387904136</v>
+        <v>50.02582018443889</v>
       </c>
       <c r="R16">
-        <v>18.716327424816</v>
+        <v>450.23238165995</v>
       </c>
       <c r="S16">
-        <v>0.001253076775557175</v>
+        <v>0.0111147500960276</v>
       </c>
       <c r="T16">
-        <v>0.0009790152484087104</v>
+        <v>0.01339850201647731</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,7 +1464,7 @@
         <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E17">
         <v>2</v>
@@ -1473,51 +1473,51 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.934301</v>
+        <v>1.2534795</v>
       </c>
       <c r="H17">
-        <v>3.868602</v>
+        <v>2.506959</v>
       </c>
       <c r="I17">
-        <v>0.4196220973378282</v>
+        <v>0.327199649867591</v>
       </c>
       <c r="J17">
-        <v>0.327610193019432</v>
+        <v>0.2627869923028463</v>
       </c>
       <c r="K17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>277.297302</v>
+        <v>1.3066445</v>
       </c>
       <c r="N17">
-        <v>831.8919060000001</v>
+        <v>2.613289</v>
       </c>
       <c r="O17">
-        <v>0.5134754064990537</v>
+        <v>0.001112160163263433</v>
       </c>
       <c r="P17">
-        <v>0.5138452746878521</v>
+        <v>0.000741908464961699</v>
       </c>
       <c r="Q17">
-        <v>536.376448555902</v>
+        <v>1.63785209453775</v>
       </c>
       <c r="R17">
-        <v>3218.258691335413</v>
+        <v>6.551408378151001</v>
       </c>
       <c r="S17">
-        <v>0.2154656270065268</v>
+        <v>0.0003638984160164781</v>
       </c>
       <c r="T17">
-        <v>0.1683409496226103</v>
+        <v>0.0001949638940713065</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,60 +1526,60 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.5777963333333334</v>
+        <v>1.2534795</v>
       </c>
       <c r="H18">
-        <v>1.733389</v>
+        <v>2.506959</v>
       </c>
       <c r="I18">
-        <v>0.1253455947277287</v>
+        <v>0.327199649867591</v>
       </c>
       <c r="J18">
-        <v>0.1467909867357149</v>
+        <v>0.2627869923028463</v>
       </c>
       <c r="K18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>1.16617</v>
+        <v>365.6839396666667</v>
       </c>
       <c r="N18">
-        <v>2.33234</v>
+        <v>1097.051819</v>
       </c>
       <c r="O18">
-        <v>0.002159413778923105</v>
+        <v>0.3112545991220224</v>
       </c>
       <c r="P18">
-        <v>0.001440646169678522</v>
+        <v>0.3114512137837528</v>
       </c>
       <c r="Q18">
-        <v>0.6738087500433334</v>
+        <v>458.3773218514036</v>
       </c>
       <c r="R18">
-        <v>4.04285250026</v>
+        <v>2750.263931108421</v>
       </c>
       <c r="S18">
-        <v>0.0002706730043823686</v>
+        <v>0.1018423958524031</v>
       </c>
       <c r="T18">
-        <v>0.0002114738727841384</v>
+        <v>0.0818453277193032</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,60 +1588,60 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.5777963333333334</v>
+        <v>1.2534795</v>
       </c>
       <c r="H19">
-        <v>1.733389</v>
+        <v>2.506959</v>
       </c>
       <c r="I19">
-        <v>0.1253455947277287</v>
+        <v>0.327199649867591</v>
       </c>
       <c r="J19">
-        <v>0.1467909867357149</v>
+        <v>0.2627869923028463</v>
       </c>
       <c r="K19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M19">
-        <v>259.9639433333334</v>
+        <v>0.9183924999999999</v>
       </c>
       <c r="N19">
-        <v>779.89183</v>
+        <v>1.836785</v>
       </c>
       <c r="O19">
-        <v>0.4813789766990964</v>
+        <v>0.0007816965921028347</v>
       </c>
       <c r="P19">
-        <v>0.481725725088569</v>
+        <v>0.0005214602517420287</v>
       </c>
       <c r="Q19">
-        <v>150.2062132568745</v>
+        <v>1.15118617170375</v>
       </c>
       <c r="R19">
-        <v>1351.85591931187</v>
+        <v>4.604744686815</v>
       </c>
       <c r="S19">
-        <v>0.06033873412377368</v>
+        <v>0.0002557708512387366</v>
       </c>
       <c r="T19">
-        <v>0.07071299452172879</v>
+        <v>0.0001370329711607728</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
         <v>26</v>
@@ -1653,22 +1653,22 @@
         <v>24</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.5777963333333334</v>
+        <v>1.2534795</v>
       </c>
       <c r="H20">
-        <v>1.733389</v>
+        <v>2.506959</v>
       </c>
       <c r="I20">
-        <v>0.1253455947277287</v>
+        <v>0.327199649867591</v>
       </c>
       <c r="J20">
-        <v>0.1467909867357149</v>
+        <v>0.2627869923028463</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,33 +1677,33 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.612669333333334</v>
+        <v>580.2741193333334</v>
       </c>
       <c r="N20">
-        <v>4.838008</v>
+        <v>1740.822358</v>
       </c>
       <c r="O20">
-        <v>0.002986203022926964</v>
+        <v>0.4939046230977935</v>
       </c>
       <c r="P20">
-        <v>0.002988354053900395</v>
+        <v>0.4942166149227221</v>
       </c>
       <c r="Q20">
-        <v>0.9317944276791112</v>
+        <v>727.3617129648871</v>
       </c>
       <c r="R20">
-        <v>8.386149849112002</v>
+        <v>4364.170277789322</v>
       </c>
       <c r="S20">
-        <v>0.0003743073938865214</v>
+        <v>0.1616054197455825</v>
       </c>
       <c r="T20">
-        <v>0.0004386634402877128</v>
+        <v>0.1298736977816361</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
         <v>26</v>
@@ -1715,22 +1715,22 @@
         <v>25</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.5777963333333334</v>
+        <v>1.2534795</v>
       </c>
       <c r="H21">
-        <v>1.733389</v>
+        <v>2.506959</v>
       </c>
       <c r="I21">
-        <v>0.1253455947277287</v>
+        <v>0.327199649867591</v>
       </c>
       <c r="J21">
-        <v>0.1467909867357149</v>
+        <v>0.2627869923028463</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1739,33 +1739,33 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>277.297302</v>
+        <v>226.6877033333333</v>
       </c>
       <c r="N21">
-        <v>831.8919060000001</v>
+        <v>680.0631099999999</v>
       </c>
       <c r="O21">
-        <v>0.5134754064990537</v>
+        <v>0.1929469210248179</v>
       </c>
       <c r="P21">
-        <v>0.5138452746878521</v>
+        <v>0.1930688025768214</v>
       </c>
       <c r="Q21">
-        <v>160.221364338826</v>
+        <v>284.148389030415</v>
       </c>
       <c r="R21">
-        <v>1441.992279049434</v>
+        <v>1704.89033418249</v>
       </c>
       <c r="S21">
-        <v>0.0643618802056861</v>
+        <v>0.06313216500235014</v>
       </c>
       <c r="T21">
-        <v>0.07542785490091429</v>
+        <v>0.05073596993667492</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1777,22 +1777,22 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G22">
-        <v>0.3753126666666667</v>
+        <v>0.2558096666666667</v>
       </c>
       <c r="H22">
-        <v>1.125938</v>
+        <v>0.767429</v>
       </c>
       <c r="I22">
-        <v>0.08141932840034714</v>
+        <v>0.06677479238079162</v>
       </c>
       <c r="J22">
-        <v>0.09534937052400667</v>
+        <v>0.08044421895849953</v>
       </c>
       <c r="K22">
         <v>2</v>
@@ -1801,33 +1801,33 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>1.16617</v>
+        <v>1.3066445</v>
       </c>
       <c r="N22">
-        <v>2.33234</v>
+        <v>2.613289</v>
       </c>
       <c r="O22">
-        <v>0.002159413778923105</v>
+        <v>0.001112160163263433</v>
       </c>
       <c r="P22">
-        <v>0.001440646169678522</v>
+        <v>0.000741908464961699</v>
       </c>
       <c r="Q22">
-        <v>0.4376783724866667</v>
+        <v>0.3342522939968333</v>
       </c>
       <c r="R22">
-        <v>2.626070234920001</v>
+        <v>2.005513763981</v>
       </c>
       <c r="S22">
-        <v>0.0001758180196183749</v>
+        <v>7.426426399610305E-05</v>
       </c>
       <c r="T22">
-        <v>0.0001373647054266684</v>
+        <v>5.968224700254319E-05</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1839,22 +1839,22 @@
         <v>22</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G23">
-        <v>0.3753126666666667</v>
+        <v>0.2558096666666667</v>
       </c>
       <c r="H23">
-        <v>1.125938</v>
+        <v>0.767429</v>
       </c>
       <c r="I23">
-        <v>0.08141932840034714</v>
+        <v>0.06677479238079162</v>
       </c>
       <c r="J23">
-        <v>0.09534937052400667</v>
+        <v>0.08044421895849953</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,33 +1863,33 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>259.9639433333334</v>
+        <v>365.6839396666667</v>
       </c>
       <c r="N23">
-        <v>779.89183</v>
+        <v>1097.051819</v>
       </c>
       <c r="O23">
-        <v>0.4813789766990964</v>
+        <v>0.3112545991220224</v>
       </c>
       <c r="P23">
-        <v>0.481725725088569</v>
+        <v>0.3114512137837528</v>
       </c>
       <c r="Q23">
-        <v>97.56776080961556</v>
+        <v>93.54548671148345</v>
       </c>
       <c r="R23">
-        <v>878.1098472865401</v>
+        <v>841.9093804033511</v>
       </c>
       <c r="S23">
-        <v>0.03919355298888678</v>
+        <v>0.02078396123393957</v>
       </c>
       <c r="T23">
-        <v>0.04593224465241574</v>
+        <v>0.02505444963651066</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B24" t="s">
         <v>26</v>
@@ -1898,117 +1898,489 @@
         <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G24">
-        <v>0.3753126666666667</v>
+        <v>0.2558096666666667</v>
       </c>
       <c r="H24">
-        <v>1.125938</v>
+        <v>0.767429</v>
       </c>
       <c r="I24">
-        <v>0.08141932840034714</v>
+        <v>0.06677479238079162</v>
       </c>
       <c r="J24">
-        <v>0.09534937052400667</v>
+        <v>0.08044421895849953</v>
       </c>
       <c r="K24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L24">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M24">
-        <v>1.612669333333334</v>
+        <v>0.9183924999999999</v>
       </c>
       <c r="N24">
-        <v>4.838008</v>
+        <v>1.836785</v>
       </c>
       <c r="O24">
-        <v>0.002986203022926964</v>
+        <v>0.0007816965921028347</v>
       </c>
       <c r="P24">
-        <v>0.002988354053900395</v>
+        <v>0.0005214602517420287</v>
       </c>
       <c r="Q24">
-        <v>0.605255227944889</v>
+        <v>0.2349336792941666</v>
       </c>
       <c r="R24">
-        <v>5.447297051504001</v>
+        <v>1.409602075765</v>
       </c>
       <c r="S24">
-        <v>0.0002431346445937999</v>
+        <v>5.219762764243914E-05</v>
       </c>
       <c r="T24">
-        <v>0.0002849376779422662</v>
+        <v>4.194846266929004E-05</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G25">
+        <v>0.2558096666666667</v>
+      </c>
+      <c r="H25">
+        <v>0.767429</v>
+      </c>
+      <c r="I25">
+        <v>0.06677479238079162</v>
+      </c>
+      <c r="J25">
+        <v>0.08044421895849953</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>580.2741193333334</v>
+      </c>
+      <c r="N25">
+        <v>1740.822358</v>
+      </c>
+      <c r="O25">
+        <v>0.4939046230977935</v>
+      </c>
+      <c r="P25">
+        <v>0.4942166149227221</v>
+      </c>
+      <c r="Q25">
+        <v>148.4397290419536</v>
+      </c>
+      <c r="R25">
+        <v>1335.957561377582</v>
+      </c>
+      <c r="S25">
+        <v>0.0329803786632683</v>
+      </c>
+      <c r="T25">
+        <v>0.0397568695837719</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
         <v>25</v>
       </c>
-      <c r="B25" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G26">
+        <v>0.2558096666666667</v>
+      </c>
+      <c r="H26">
+        <v>0.767429</v>
+      </c>
+      <c r="I26">
+        <v>0.06677479238079162</v>
+      </c>
+      <c r="J26">
+        <v>0.08044421895849953</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>226.6877033333333</v>
+      </c>
+      <c r="N26">
+        <v>680.0631099999999</v>
+      </c>
+      <c r="O26">
+        <v>0.1929469210248179</v>
+      </c>
+      <c r="P26">
+        <v>0.1930688025768214</v>
+      </c>
+      <c r="Q26">
+        <v>57.98890582713221</v>
+      </c>
+      <c r="R26">
+        <v>521.90015244419</v>
+      </c>
+      <c r="S26">
+        <v>0.01288399059194521</v>
+      </c>
+      <c r="T26">
+        <v>0.01553126902854514</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
         <v>25</v>
       </c>
-      <c r="E25">
-        <v>3</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>0.3753126666666667</v>
-      </c>
-      <c r="H25">
-        <v>1.125938</v>
-      </c>
-      <c r="I25">
-        <v>0.08141932840034714</v>
-      </c>
-      <c r="J25">
-        <v>0.09534937052400667</v>
-      </c>
-      <c r="K25">
-        <v>3</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>277.297302</v>
-      </c>
-      <c r="N25">
-        <v>831.8919060000001</v>
-      </c>
-      <c r="O25">
-        <v>0.5134754064990537</v>
-      </c>
-      <c r="P25">
-        <v>0.5138452746878521</v>
-      </c>
-      <c r="Q25">
-        <v>104.073189873092</v>
-      </c>
-      <c r="R25">
-        <v>936.6587088578282</v>
-      </c>
-      <c r="S25">
-        <v>0.04180682274724819</v>
-      </c>
-      <c r="T25">
-        <v>0.048994823488222</v>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>1.023908333333333</v>
+      </c>
+      <c r="H27">
+        <v>3.071725</v>
+      </c>
+      <c r="I27">
+        <v>0.2672739746945804</v>
+      </c>
+      <c r="J27">
+        <v>0.3219874652642745</v>
+      </c>
+      <c r="K27">
+        <v>2</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>1.3066445</v>
+      </c>
+      <c r="N27">
+        <v>2.613289</v>
+      </c>
+      <c r="O27">
+        <v>0.001112160163263433</v>
+      </c>
+      <c r="P27">
+        <v>0.000741908464961699</v>
+      </c>
+      <c r="Q27">
+        <v>1.337884192254166</v>
+      </c>
+      <c r="R27">
+        <v>8.027305153524999</v>
+      </c>
+      <c r="S27">
+        <v>0.0002972514673323912</v>
+      </c>
+      <c r="T27">
+        <v>0.0002388852260911263</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>1.023908333333333</v>
+      </c>
+      <c r="H28">
+        <v>3.071725</v>
+      </c>
+      <c r="I28">
+        <v>0.2672739746945804</v>
+      </c>
+      <c r="J28">
+        <v>0.3219874652642745</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>365.6839396666667</v>
+      </c>
+      <c r="N28">
+        <v>1097.051819</v>
+      </c>
+      <c r="O28">
+        <v>0.3112545991220224</v>
+      </c>
+      <c r="P28">
+        <v>0.3114512137837528</v>
+      </c>
+      <c r="Q28">
+        <v>374.4268331908639</v>
+      </c>
+      <c r="R28">
+        <v>3369.841498717775</v>
+      </c>
+      <c r="S28">
+        <v>0.08319025384931117</v>
+      </c>
+      <c r="T28">
+        <v>0.1002833868797123</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>1.023908333333333</v>
+      </c>
+      <c r="H29">
+        <v>3.071725</v>
+      </c>
+      <c r="I29">
+        <v>0.2672739746945804</v>
+      </c>
+      <c r="J29">
+        <v>0.3219874652642745</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <v>0.5</v>
+      </c>
+      <c r="M29">
+        <v>0.9183924999999999</v>
+      </c>
+      <c r="N29">
+        <v>1.836785</v>
+      </c>
+      <c r="O29">
+        <v>0.0007816965921028347</v>
+      </c>
+      <c r="P29">
+        <v>0.0005214602517420287</v>
+      </c>
+      <c r="Q29">
+        <v>0.9403497340208331</v>
+      </c>
+      <c r="R29">
+        <v>5.642098404124999</v>
+      </c>
+      <c r="S29">
+        <v>0.0002089271551765327</v>
+      </c>
+      <c r="T29">
+        <v>0.0001679036646944863</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>1.023908333333333</v>
+      </c>
+      <c r="H30">
+        <v>3.071725</v>
+      </c>
+      <c r="I30">
+        <v>0.2672739746945804</v>
+      </c>
+      <c r="J30">
+        <v>0.3219874652642745</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>580.2741193333334</v>
+      </c>
+      <c r="N30">
+        <v>1740.822358</v>
+      </c>
+      <c r="O30">
+        <v>0.4939046230977935</v>
+      </c>
+      <c r="P30">
+        <v>0.4942166149227221</v>
+      </c>
+      <c r="Q30">
+        <v>594.1475064030611</v>
+      </c>
+      <c r="R30">
+        <v>5347.32755762755</v>
+      </c>
+      <c r="S30">
+        <v>0.1320078517353759</v>
+      </c>
+      <c r="T30">
+        <v>0.1591315551304573</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>1.023908333333333</v>
+      </c>
+      <c r="H31">
+        <v>3.071725</v>
+      </c>
+      <c r="I31">
+        <v>0.2672739746945804</v>
+      </c>
+      <c r="J31">
+        <v>0.3219874652642745</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>226.6877033333333</v>
+      </c>
+      <c r="N31">
+        <v>680.0631099999999</v>
+      </c>
+      <c r="O31">
+        <v>0.1929469210248179</v>
+      </c>
+      <c r="P31">
+        <v>0.1930688025768214</v>
+      </c>
+      <c r="Q31">
+        <v>232.1074285071944</v>
+      </c>
+      <c r="R31">
+        <v>2088.96685656475</v>
+      </c>
+      <c r="S31">
+        <v>0.05156969048738437</v>
+      </c>
+      <c r="T31">
+        <v>0.06216573436331936</v>
       </c>
     </row>
   </sheetData>
